--- a/data/pca/factorExposure/factorExposure_2019-04-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1303552049053389</v>
+        <v>-0.08046117034382341</v>
       </c>
       <c r="C2">
-        <v>-0.01387934219928815</v>
+        <v>-0.03239911730424225</v>
       </c>
       <c r="D2">
-        <v>-0.04831365793725055</v>
+        <v>-0.004861561792986487</v>
       </c>
       <c r="E2">
-        <v>-0.1045841092378084</v>
+        <v>-0.04154652905855682</v>
       </c>
       <c r="F2">
-        <v>-0.09503574644046762</v>
+        <v>-0.1405370761055183</v>
       </c>
       <c r="G2">
-        <v>0.04796588421539472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.09533575293112664</v>
+      </c>
+      <c r="H2">
+        <v>-0.06742952431626424</v>
+      </c>
+      <c r="I2">
+        <v>-0.005342976879273376</v>
+      </c>
+      <c r="J2">
+        <v>-0.08419290423192932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2217185505137479</v>
+        <v>-0.1671806731323785</v>
       </c>
       <c r="C3">
-        <v>0.08895623067747334</v>
+        <v>-0.06508507175174286</v>
       </c>
       <c r="D3">
-        <v>0.01095240450796578</v>
+        <v>0.06053564376383817</v>
       </c>
       <c r="E3">
-        <v>-0.3175849474523829</v>
+        <v>0.020833821434322</v>
       </c>
       <c r="F3">
-        <v>-0.007215819745933979</v>
+        <v>-0.3663437052903031</v>
       </c>
       <c r="G3">
-        <v>0.2389313104546481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.02783728375885558</v>
+      </c>
+      <c r="H3">
+        <v>-0.2742659857741182</v>
+      </c>
+      <c r="I3">
+        <v>-0.09693774137553648</v>
+      </c>
+      <c r="J3">
+        <v>-0.3157500656490404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09835602779164813</v>
+        <v>-0.07497752024282715</v>
       </c>
       <c r="C4">
-        <v>0.0269145060962671</v>
+        <v>-0.02057897750334988</v>
       </c>
       <c r="D4">
-        <v>-0.02207764041840538</v>
+        <v>0.03572300735268312</v>
       </c>
       <c r="E4">
-        <v>-0.07900297361771857</v>
+        <v>-0.03108705517492203</v>
       </c>
       <c r="F4">
-        <v>-0.04492353015274613</v>
+        <v>-0.08535720663961022</v>
       </c>
       <c r="G4">
-        <v>0.03449338565639456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04023293353084149</v>
+      </c>
+      <c r="H4">
+        <v>-0.03109872763468712</v>
+      </c>
+      <c r="I4">
+        <v>-0.01405525718357771</v>
+      </c>
+      <c r="J4">
+        <v>-0.06997924552561061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01778434802023235</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.0003980479804381561</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.007793170380041957</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002285146842270816</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.001169067031828826</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01780659804298199</v>
+      </c>
+      <c r="H6">
+        <v>-0.001185133976593833</v>
+      </c>
+      <c r="I6">
+        <v>0.009437528727288202</v>
+      </c>
+      <c r="J6">
+        <v>-0.001624194465590091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04265431025817453</v>
+        <v>-0.03535300721737283</v>
       </c>
       <c r="C7">
-        <v>0.005358703892084775</v>
+        <v>0.009985870221134447</v>
       </c>
       <c r="D7">
-        <v>-0.03467614794494116</v>
+        <v>0.03879819190010178</v>
       </c>
       <c r="E7">
-        <v>-0.07208756380995843</v>
+        <v>-0.0270831792343953</v>
       </c>
       <c r="F7">
-        <v>0.04473507880560548</v>
+        <v>-0.05763290273400923</v>
       </c>
       <c r="G7">
-        <v>0.001779194019558073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01203632147753499</v>
+      </c>
+      <c r="H7">
+        <v>-0.04538497229219779</v>
+      </c>
+      <c r="I7">
+        <v>0.02412738149286545</v>
+      </c>
+      <c r="J7">
+        <v>-0.04381842265354207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04096700701403146</v>
+        <v>-0.03182077461550746</v>
       </c>
       <c r="C8">
-        <v>0.04224400126396112</v>
+        <v>-0.02431447541450457</v>
       </c>
       <c r="D8">
-        <v>-0.004663745828441465</v>
+        <v>0.03776363199042291</v>
       </c>
       <c r="E8">
-        <v>-0.0761657333608847</v>
+        <v>-0.0123666939137857</v>
       </c>
       <c r="F8">
-        <v>-0.004090866501960852</v>
+        <v>-0.07691765968028831</v>
       </c>
       <c r="G8">
-        <v>0.04165098584770899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.008118267540411034</v>
+      </c>
+      <c r="H8">
+        <v>-0.05339305230859002</v>
+      </c>
+      <c r="I8">
+        <v>-0.01181178250874354</v>
+      </c>
+      <c r="J8">
+        <v>-0.07275378053099764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08685011770440565</v>
+        <v>-0.06325242672552044</v>
       </c>
       <c r="C9">
-        <v>0.0310603299743453</v>
+        <v>-0.01829125440453046</v>
       </c>
       <c r="D9">
-        <v>-0.03290983378407179</v>
+        <v>0.04033967368173704</v>
       </c>
       <c r="E9">
-        <v>-0.0670371144771531</v>
+        <v>-0.03218494365442575</v>
       </c>
       <c r="F9">
-        <v>-0.02809544195276377</v>
+        <v>-0.08583242352926103</v>
       </c>
       <c r="G9">
-        <v>0.04847235730351226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.03375353447694298</v>
+      </c>
+      <c r="H9">
+        <v>-0.02758373776651774</v>
+      </c>
+      <c r="I9">
+        <v>0.002470407531691528</v>
+      </c>
+      <c r="J9">
+        <v>-0.03850006720341766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.008134493296536214</v>
+        <v>-0.01544527424624394</v>
       </c>
       <c r="C10">
-        <v>-0.1591183731887832</v>
+        <v>0.112641742452024</v>
       </c>
       <c r="D10">
-        <v>0.01119066462653661</v>
+        <v>-0.112208763876202</v>
       </c>
       <c r="E10">
-        <v>-0.06338858700494418</v>
+        <v>0.02251453506950755</v>
       </c>
       <c r="F10">
-        <v>-0.01153694443185978</v>
+        <v>-0.06452367120924671</v>
       </c>
       <c r="G10">
-        <v>-0.00955382622006957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01926973272793325</v>
+      </c>
+      <c r="H10">
+        <v>-0.003630994935863624</v>
+      </c>
+      <c r="I10">
+        <v>-0.1122719030742861</v>
+      </c>
+      <c r="J10">
+        <v>-0.04107422078843997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05890863862626657</v>
+        <v>-0.04958054749911288</v>
       </c>
       <c r="C11">
-        <v>0.006167405238545943</v>
+        <v>-0.02307334729120158</v>
       </c>
       <c r="D11">
-        <v>0.007144171836358174</v>
+        <v>0.009934416835032465</v>
       </c>
       <c r="E11">
-        <v>-0.04073077997164499</v>
+        <v>-0.006475856836851922</v>
       </c>
       <c r="F11">
-        <v>-0.003884575246342756</v>
+        <v>-0.04311685565905951</v>
       </c>
       <c r="G11">
-        <v>-0.03200227358562127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.005586791316259326</v>
+      </c>
+      <c r="H11">
+        <v>-0.005102972778833634</v>
+      </c>
+      <c r="I11">
+        <v>0.02803310832792573</v>
+      </c>
+      <c r="J11">
+        <v>-0.03312236128073121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.0444555170245001</v>
+        <v>-0.04518124643640704</v>
       </c>
       <c r="C12">
-        <v>0.01234372388923235</v>
+        <v>-0.01566481251803149</v>
       </c>
       <c r="D12">
-        <v>0.003773381554201218</v>
+        <v>0.01853790454532498</v>
       </c>
       <c r="E12">
-        <v>-0.03252692676711429</v>
+        <v>-0.008808609100084906</v>
       </c>
       <c r="F12">
-        <v>0.0005860219348138752</v>
+        <v>-0.02263487772450661</v>
       </c>
       <c r="G12">
-        <v>-0.004723842292684403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002499704082639954</v>
+      </c>
+      <c r="H12">
+        <v>-0.00556653125057355</v>
+      </c>
+      <c r="I12">
+        <v>0.02250305433151106</v>
+      </c>
+      <c r="J12">
+        <v>-0.01505283862969415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06302505174441909</v>
+        <v>-0.04275545159568564</v>
       </c>
       <c r="C13">
-        <v>0.01502072705851012</v>
+        <v>-0.02758862878984395</v>
       </c>
       <c r="D13">
-        <v>0.006875058732347155</v>
+        <v>0.00275642787755279</v>
       </c>
       <c r="E13">
-        <v>-0.1096122109691968</v>
+        <v>-0.00679478926619721</v>
       </c>
       <c r="F13">
-        <v>-0.01554693813603387</v>
+        <v>-0.1037382952335911</v>
       </c>
       <c r="G13">
-        <v>0.01586289704766734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.01326139186288824</v>
+      </c>
+      <c r="H13">
+        <v>-0.05110447277821809</v>
+      </c>
+      <c r="I13">
+        <v>0.008877864366307173</v>
+      </c>
+      <c r="J13">
+        <v>-0.05955111312482721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.0371556206825308</v>
+        <v>-0.02948298303909526</v>
       </c>
       <c r="C14">
-        <v>0.008706393702537382</v>
+        <v>-0.008779701016530391</v>
       </c>
       <c r="D14">
-        <v>-0.02067308190194065</v>
+        <v>0.01530304449915509</v>
       </c>
       <c r="E14">
-        <v>-0.01948284888035214</v>
+        <v>-0.02475996446411404</v>
       </c>
       <c r="F14">
-        <v>0.002501459896062249</v>
+        <v>-0.03805846349546869</v>
       </c>
       <c r="G14">
-        <v>-0.004734781301185787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01859003598837737</v>
+      </c>
+      <c r="H14">
+        <v>-0.05449793320819632</v>
+      </c>
+      <c r="I14">
+        <v>-0.00437858319823548</v>
+      </c>
+      <c r="J14">
+        <v>-0.02099189881956244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04880798977617916</v>
+        <v>-0.04357556103893089</v>
       </c>
       <c r="C16">
-        <v>0.02223671552904058</v>
+        <v>-0.02571137994991347</v>
       </c>
       <c r="D16">
-        <v>0.01346840309390297</v>
+        <v>0.02053808872312345</v>
       </c>
       <c r="E16">
-        <v>-0.03807983602091373</v>
+        <v>-0.0027024276041966</v>
       </c>
       <c r="F16">
-        <v>0.002769335415340628</v>
+        <v>-0.03689891747306098</v>
       </c>
       <c r="G16">
-        <v>-0.0119991645900473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.006346183586594029</v>
+      </c>
+      <c r="H16">
+        <v>-0.00959047882619808</v>
+      </c>
+      <c r="I16">
+        <v>0.02441612990764463</v>
+      </c>
+      <c r="J16">
+        <v>-0.02674904055480353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05206703151190686</v>
+        <v>-0.04583187391240291</v>
       </c>
       <c r="C19">
-        <v>0.02749537573843152</v>
+        <v>-0.02853563370512125</v>
       </c>
       <c r="D19">
-        <v>-0.003281205785935568</v>
+        <v>0.02275775115717345</v>
       </c>
       <c r="E19">
-        <v>-0.07992264675598004</v>
+        <v>-0.0123867963854847</v>
       </c>
       <c r="F19">
-        <v>0.008038305483991436</v>
+        <v>-0.09013994322276438</v>
       </c>
       <c r="G19">
-        <v>0.02268798475666257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.0005522880712952958</v>
+      </c>
+      <c r="H19">
+        <v>-0.08407390035046447</v>
+      </c>
+      <c r="I19">
+        <v>-0.0100920535128037</v>
+      </c>
+      <c r="J19">
+        <v>-0.053196162814036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03724859273557122</v>
+        <v>-0.01828921125746705</v>
       </c>
       <c r="C20">
-        <v>0.03625453859182969</v>
+        <v>-0.02143374266420559</v>
       </c>
       <c r="D20">
-        <v>-0.01552261189020123</v>
+        <v>0.028174607836933</v>
       </c>
       <c r="E20">
-        <v>-0.06370646817919343</v>
+        <v>-0.01836567035310664</v>
       </c>
       <c r="F20">
-        <v>0.01722293771012904</v>
+        <v>-0.07089778960996355</v>
       </c>
       <c r="G20">
-        <v>0.01311025153901522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0009481233927318161</v>
+      </c>
+      <c r="H20">
+        <v>-0.06918833379161173</v>
+      </c>
+      <c r="I20">
+        <v>0.005382075334376723</v>
+      </c>
+      <c r="J20">
+        <v>-0.07764225501350197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03866422762834944</v>
+        <v>-0.02135773409908371</v>
       </c>
       <c r="C21">
-        <v>0.01875815124730977</v>
+        <v>-0.0121159418022803</v>
       </c>
       <c r="D21">
-        <v>-0.001944012887462226</v>
+        <v>0.03127622462172076</v>
       </c>
       <c r="E21">
-        <v>-0.09322146532427966</v>
+        <v>-0.0009866903037791868</v>
       </c>
       <c r="F21">
-        <v>-0.04569686236221976</v>
+        <v>-0.07961960859206212</v>
       </c>
       <c r="G21">
-        <v>0.002694536001693171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02792889005357569</v>
+      </c>
+      <c r="H21">
+        <v>-0.03243055284711242</v>
+      </c>
+      <c r="I21">
+        <v>0.01624011300100367</v>
+      </c>
+      <c r="J21">
+        <v>-0.02136398625525337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.0497163074739079</v>
+        <v>-0.04217273434122088</v>
       </c>
       <c r="C24">
-        <v>0.01438929820632419</v>
+        <v>-0.01727253919780719</v>
       </c>
       <c r="D24">
-        <v>0.00158783385273503</v>
+        <v>0.01302921800039367</v>
       </c>
       <c r="E24">
-        <v>-0.04579001755711099</v>
+        <v>-0.007494038194702021</v>
       </c>
       <c r="F24">
-        <v>0.001642388286089512</v>
+        <v>-0.04343709618891689</v>
       </c>
       <c r="G24">
-        <v>-0.007836240649192569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.006617352530325821</v>
+      </c>
+      <c r="H24">
+        <v>-0.008505037002531021</v>
+      </c>
+      <c r="I24">
+        <v>0.02495825164902031</v>
+      </c>
+      <c r="J24">
+        <v>-0.03339098955157482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.04962036839889428</v>
+        <v>-0.04368493282333594</v>
       </c>
       <c r="C25">
-        <v>0.005043632121121824</v>
+        <v>-0.01800620578892238</v>
       </c>
       <c r="D25">
-        <v>0.003547929338317411</v>
+        <v>0.01262419486880867</v>
       </c>
       <c r="E25">
-        <v>-0.04447209742884894</v>
+        <v>-0.005514638302171234</v>
       </c>
       <c r="F25">
-        <v>-0.00666897728889106</v>
+        <v>-0.04763743834876166</v>
       </c>
       <c r="G25">
-        <v>-0.01732194152313354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.000485607164855282</v>
+      </c>
+      <c r="H25">
+        <v>-0.003406332690118811</v>
+      </c>
+      <c r="I25">
+        <v>0.02342117337292989</v>
+      </c>
+      <c r="J25">
+        <v>-0.02341198617621615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.008889741710854498</v>
+        <v>-0.01371312480412942</v>
       </c>
       <c r="C26">
-        <v>0.01931582975946207</v>
+        <v>-0.01677666516528291</v>
       </c>
       <c r="D26">
-        <v>-0.007166855733370462</v>
+        <v>0.01032535029843827</v>
       </c>
       <c r="E26">
-        <v>-0.04748464877053479</v>
+        <v>-0.0001054560229368523</v>
       </c>
       <c r="F26">
-        <v>-0.01624929886814167</v>
+        <v>-0.05183381469612669</v>
       </c>
       <c r="G26">
-        <v>-0.00611418994671051</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01203146975099431</v>
+      </c>
+      <c r="H26">
+        <v>-0.03278837695454516</v>
+      </c>
+      <c r="I26">
+        <v>0.01919383217929642</v>
+      </c>
+      <c r="J26">
+        <v>-0.035212249486962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1110662715711509</v>
+        <v>-0.08170535612258582</v>
       </c>
       <c r="C27">
-        <v>0.01905004228914246</v>
+        <v>-0.01895212129417125</v>
       </c>
       <c r="D27">
-        <v>-0.02537323541772673</v>
+        <v>0.01927259075066267</v>
       </c>
       <c r="E27">
-        <v>-0.1090179754799321</v>
+        <v>-0.03225404799617163</v>
       </c>
       <c r="F27">
-        <v>-0.01407641129620911</v>
+        <v>-0.07921862923733926</v>
       </c>
       <c r="G27">
-        <v>0.01606750205334744</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01058988722155709</v>
+      </c>
+      <c r="H27">
+        <v>-0.01149319634414541</v>
+      </c>
+      <c r="I27">
+        <v>0.001612208415684915</v>
+      </c>
+      <c r="J27">
+        <v>-0.04659532826648086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.008456560069389982</v>
+        <v>-0.02821977391821475</v>
       </c>
       <c r="C28">
-        <v>-0.242537431122348</v>
+        <v>0.1722351762945669</v>
       </c>
       <c r="D28">
-        <v>0.02017358703023709</v>
+        <v>-0.1576618848256087</v>
       </c>
       <c r="E28">
-        <v>-0.0388746274104626</v>
+        <v>0.03365123398861606</v>
       </c>
       <c r="F28">
-        <v>-0.006052005641651178</v>
+        <v>-0.04721254837485664</v>
       </c>
       <c r="G28">
-        <v>0.01029052060254297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02340359692538551</v>
+      </c>
+      <c r="H28">
+        <v>0.007200539814615054</v>
+      </c>
+      <c r="I28">
+        <v>-0.1565910053593921</v>
+      </c>
+      <c r="J28">
+        <v>-0.05709459370537569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0212582455166011</v>
+        <v>-0.02211950177684885</v>
       </c>
       <c r="C29">
-        <v>0.0163087283499294</v>
+        <v>-0.008300644730956298</v>
       </c>
       <c r="D29">
-        <v>-0.0226041946067497</v>
+        <v>0.02006427154405317</v>
       </c>
       <c r="E29">
-        <v>-0.02624017005375821</v>
+        <v>-0.02384180181281565</v>
       </c>
       <c r="F29">
-        <v>-0.009190982882050487</v>
+        <v>-0.0383206709013173</v>
       </c>
       <c r="G29">
-        <v>-0.002687411203680368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02151916920331703</v>
+      </c>
+      <c r="H29">
+        <v>-0.05199226236945916</v>
+      </c>
+      <c r="I29">
+        <v>0.0014287112274587</v>
+      </c>
+      <c r="J29">
+        <v>-0.01056318025379738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1086586647822799</v>
+        <v>-0.09777941566966053</v>
       </c>
       <c r="C30">
-        <v>0.008409593731169965</v>
+        <v>-0.05319522265815049</v>
       </c>
       <c r="D30">
-        <v>-0.02340758221835765</v>
+        <v>-0.007005151292652125</v>
       </c>
       <c r="E30">
-        <v>-0.1105749921881378</v>
+        <v>-0.03124087591856199</v>
       </c>
       <c r="F30">
-        <v>-0.0194859504687697</v>
+        <v>-0.1072519694801055</v>
       </c>
       <c r="G30">
-        <v>-0.06580333281673913</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.005831433695089688</v>
+      </c>
+      <c r="H30">
+        <v>-0.007931357937723538</v>
+      </c>
+      <c r="I30">
+        <v>0.0287317782784208</v>
+      </c>
+      <c r="J30">
+        <v>-0.01775429125985204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05825313000734628</v>
+        <v>-0.06122092838971852</v>
       </c>
       <c r="C31">
-        <v>0.01396051644704284</v>
+        <v>-0.02305241580783179</v>
       </c>
       <c r="D31">
-        <v>-0.01558293022650356</v>
+        <v>0.004551944299171948</v>
       </c>
       <c r="E31">
-        <v>0.02059426349015931</v>
+        <v>-0.01867675236346176</v>
       </c>
       <c r="F31">
-        <v>-0.01042647227194926</v>
+        <v>-0.004838470206104446</v>
       </c>
       <c r="G31">
-        <v>-0.03528467538514026</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0370137330379091</v>
+      </c>
+      <c r="H31">
+        <v>-0.0369261285191012</v>
+      </c>
+      <c r="I31">
+        <v>-0.003292881821997221</v>
+      </c>
+      <c r="J31">
+        <v>-0.01740805340774345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.07145624292920245</v>
+        <v>-0.04832160442673342</v>
       </c>
       <c r="C32">
-        <v>0.02753172165090371</v>
+        <v>-0.02776484108344364</v>
       </c>
       <c r="D32">
-        <v>-0.01585040391285225</v>
+        <v>0.04282261769459243</v>
       </c>
       <c r="E32">
-        <v>-0.1110129312912336</v>
+        <v>-0.02694867564824857</v>
       </c>
       <c r="F32">
-        <v>0.0107786473077505</v>
+        <v>-0.09385604217455767</v>
       </c>
       <c r="G32">
-        <v>-0.009145015528839229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.003084509901447815</v>
+      </c>
+      <c r="H32">
+        <v>-0.04025916657617241</v>
+      </c>
+      <c r="I32">
+        <v>-0.002500958870643147</v>
+      </c>
+      <c r="J32">
+        <v>-0.04556698679844735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06834570600377353</v>
+        <v>-0.05830559078626383</v>
       </c>
       <c r="C33">
-        <v>0.03289368157672605</v>
+        <v>-0.0481520821342534</v>
       </c>
       <c r="D33">
-        <v>-0.01173809655408489</v>
+        <v>0.01628168956004764</v>
       </c>
       <c r="E33">
-        <v>-0.07527966708022177</v>
+        <v>-0.006085049208455538</v>
       </c>
       <c r="F33">
-        <v>-0.04331206892101549</v>
+        <v>-0.08300715715512355</v>
       </c>
       <c r="G33">
-        <v>-0.003507216518885398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02542620811460718</v>
+      </c>
+      <c r="H33">
+        <v>-0.04232949804688897</v>
+      </c>
+      <c r="I33">
+        <v>0.02898088387080326</v>
+      </c>
+      <c r="J33">
+        <v>-0.04332409458858897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.0488711939444418</v>
+        <v>-0.04460327784412377</v>
       </c>
       <c r="C34">
-        <v>0.01404241903733615</v>
+        <v>-0.0185357043035754</v>
       </c>
       <c r="D34">
-        <v>0.004502141194664229</v>
+        <v>0.02034864376387509</v>
       </c>
       <c r="E34">
-        <v>-0.02523375817626597</v>
+        <v>-0.01329599589476801</v>
       </c>
       <c r="F34">
-        <v>0.004851915781990495</v>
+        <v>-0.03606963369952738</v>
       </c>
       <c r="G34">
-        <v>-0.009459449859923344</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001385704066199383</v>
+      </c>
+      <c r="H34">
+        <v>-0.01432957025947208</v>
+      </c>
+      <c r="I34">
+        <v>0.02218928111326621</v>
+      </c>
+      <c r="J34">
+        <v>-0.02128572191075933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01270335103071299</v>
+        <v>-0.0149026966906132</v>
       </c>
       <c r="C36">
-        <v>-0.008512782568737505</v>
+        <v>0.001098581030672539</v>
       </c>
       <c r="D36">
-        <v>-0.007066806143157944</v>
+        <v>0.004766287424552889</v>
       </c>
       <c r="E36">
-        <v>-0.02363103612017266</v>
+        <v>-0.008547106794349984</v>
       </c>
       <c r="F36">
-        <v>-0.00664968800057448</v>
+        <v>-0.02943478193780914</v>
       </c>
       <c r="G36">
-        <v>-0.01041142077839489</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01726496026339141</v>
+      </c>
+      <c r="H36">
+        <v>-0.03113862426052023</v>
+      </c>
+      <c r="I36">
+        <v>0.004738520514227134</v>
+      </c>
+      <c r="J36">
+        <v>-0.004281907496776635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.0555730946881928</v>
+        <v>-0.03290548181308681</v>
       </c>
       <c r="C38">
-        <v>0.006294094224649508</v>
+        <v>-0.006733567552236881</v>
       </c>
       <c r="D38">
-        <v>-0.02635771015556706</v>
+        <v>0.008859987042074084</v>
       </c>
       <c r="E38">
-        <v>-0.03735159163060913</v>
+        <v>-0.008863347888579277</v>
       </c>
       <c r="F38">
-        <v>-0.009182796135731686</v>
+        <v>-0.05335900166496012</v>
       </c>
       <c r="G38">
-        <v>0.03714193933047896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02589994298406992</v>
+      </c>
+      <c r="H38">
+        <v>-0.01601866356274427</v>
+      </c>
+      <c r="I38">
+        <v>0.00950022758329642</v>
+      </c>
+      <c r="J38">
+        <v>0.005049952597805206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07625808106092459</v>
+        <v>-0.05819346045764308</v>
       </c>
       <c r="C39">
-        <v>0.01204273440345439</v>
+        <v>-0.03304981483119977</v>
       </c>
       <c r="D39">
-        <v>-0.003012465281897607</v>
+        <v>0.02069883410633011</v>
       </c>
       <c r="E39">
-        <v>-0.04500565103484408</v>
+        <v>-0.01527366763188646</v>
       </c>
       <c r="F39">
-        <v>-0.01829616161962571</v>
+        <v>-0.05928262784417326</v>
       </c>
       <c r="G39">
-        <v>-0.01934543179161908</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0139899546802769</v>
+      </c>
+      <c r="H39">
+        <v>-0.004352999317036131</v>
+      </c>
+      <c r="I39">
+        <v>0.04689301047387415</v>
+      </c>
+      <c r="J39">
+        <v>-0.02712935007045392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.0726325376125244</v>
+        <v>-0.05711352513460425</v>
       </c>
       <c r="C40">
-        <v>0.02768253632644714</v>
+        <v>-0.04061336679824828</v>
       </c>
       <c r="D40">
-        <v>-0.005873042737348452</v>
+        <v>0.006598093825207492</v>
       </c>
       <c r="E40">
-        <v>-0.1051010985912288</v>
+        <v>-0.02016015818949222</v>
       </c>
       <c r="F40">
-        <v>-0.03330811004377586</v>
+        <v>-0.1018311552421143</v>
       </c>
       <c r="G40">
-        <v>0.07240540806540148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01639459422996097</v>
+      </c>
+      <c r="H40">
+        <v>-0.05823846787870211</v>
+      </c>
+      <c r="I40">
+        <v>0.02680256605744681</v>
+      </c>
+      <c r="J40">
+        <v>-0.1086177509410526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003650547340183069</v>
+        <v>-0.002079916383093804</v>
       </c>
       <c r="C41">
-        <v>0.01337126583581135</v>
+        <v>-0.008531035858939605</v>
       </c>
       <c r="D41">
-        <v>-0.01731530266080411</v>
+        <v>0.008559179235115047</v>
       </c>
       <c r="E41">
-        <v>-0.0117392009676905</v>
+        <v>-0.00629275294564772</v>
       </c>
       <c r="F41">
-        <v>-0.02540939449672483</v>
+        <v>-0.01617704774734534</v>
       </c>
       <c r="G41">
-        <v>-0.001638794942058147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03045447407150302</v>
+      </c>
+      <c r="H41">
+        <v>-0.03906095859335471</v>
+      </c>
+      <c r="I41">
+        <v>-0.01399967152743371</v>
+      </c>
+      <c r="J41">
+        <v>-0.02133392671246776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1304537268842843</v>
+        <v>-0.223572369153408</v>
       </c>
       <c r="C42">
-        <v>0.195445832087871</v>
+        <v>-0.177754987364015</v>
       </c>
       <c r="D42">
-        <v>0.9336134471499984</v>
+        <v>0.06535525116921231</v>
       </c>
       <c r="E42">
-        <v>-0.009953865458241087</v>
+        <v>0.9289997758363018</v>
       </c>
       <c r="F42">
-        <v>0.01437349663086521</v>
+        <v>0.1461134175523526</v>
       </c>
       <c r="G42">
-        <v>-0.08160838463271804</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.009085524640868023</v>
+      </c>
+      <c r="H42">
+        <v>0.000138017007453233</v>
+      </c>
+      <c r="I42">
+        <v>-0.03451664618327346</v>
+      </c>
+      <c r="J42">
+        <v>-0.03917496105817545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.00721430029454828</v>
+        <v>-0.005014568518367963</v>
       </c>
       <c r="C43">
-        <v>0.01607721099687578</v>
+        <v>-0.0121767405066076</v>
       </c>
       <c r="D43">
-        <v>-0.0173955639987346</v>
+        <v>0.008078621411496067</v>
       </c>
       <c r="E43">
-        <v>-0.03302439079057504</v>
+        <v>-0.006893415039985186</v>
       </c>
       <c r="F43">
-        <v>-0.002399578996863036</v>
+        <v>-0.02947363948701237</v>
       </c>
       <c r="G43">
-        <v>-0.008702388724117542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01429678371593537</v>
+      </c>
+      <c r="H43">
+        <v>-0.03578426751270643</v>
+      </c>
+      <c r="I43">
+        <v>-0.004039850297233056</v>
+      </c>
+      <c r="J43">
+        <v>-0.02783181855643568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.0388218011334164</v>
+        <v>-0.03054401741908458</v>
       </c>
       <c r="C44">
-        <v>0.03748369081811047</v>
+        <v>-0.02594355979586866</v>
       </c>
       <c r="D44">
-        <v>-0.01210960473551377</v>
+        <v>0.0247536306451084</v>
       </c>
       <c r="E44">
-        <v>-0.1176804910969973</v>
+        <v>-0.005790925229417048</v>
       </c>
       <c r="F44">
-        <v>-0.07997256036790221</v>
+        <v>-0.1220312232564697</v>
       </c>
       <c r="G44">
-        <v>0.03034503270380339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04424459943465081</v>
+      </c>
+      <c r="H44">
+        <v>-0.1081379505782615</v>
+      </c>
+      <c r="I44">
+        <v>-0.01503390715475442</v>
+      </c>
+      <c r="J44">
+        <v>-0.04366102072982466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02393168972801196</v>
+        <v>-0.02399826017362034</v>
       </c>
       <c r="C46">
-        <v>0.01370111111637488</v>
+        <v>-0.02127780266261347</v>
       </c>
       <c r="D46">
-        <v>-0.02273902329996021</v>
+        <v>0.01520929462603054</v>
       </c>
       <c r="E46">
-        <v>-0.02428556414358838</v>
+        <v>-0.02080622666026635</v>
       </c>
       <c r="F46">
-        <v>-0.01873173196219838</v>
+        <v>-0.04739468955254496</v>
       </c>
       <c r="G46">
-        <v>-0.004357301502788396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01886737493310795</v>
+      </c>
+      <c r="H46">
+        <v>-0.05739913965088627</v>
+      </c>
+      <c r="I46">
+        <v>-0.001916745053630264</v>
+      </c>
+      <c r="J46">
+        <v>-0.02957343749001952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08457933406188373</v>
+        <v>-0.09058332837025138</v>
       </c>
       <c r="C47">
-        <v>0.007787111894223163</v>
+        <v>-0.0188191967166089</v>
       </c>
       <c r="D47">
-        <v>-0.01747344188063373</v>
+        <v>0.006693992679673006</v>
       </c>
       <c r="E47">
-        <v>0.02195187465206457</v>
+        <v>-0.02442793873927915</v>
       </c>
       <c r="F47">
-        <v>-0.007897396521845136</v>
+        <v>0.004779194900244334</v>
       </c>
       <c r="G47">
-        <v>-0.01610976419429952</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03340500719363418</v>
+      </c>
+      <c r="H47">
+        <v>-0.0589717740784827</v>
+      </c>
+      <c r="I47">
+        <v>-0.005050167327825159</v>
+      </c>
+      <c r="J47">
+        <v>-0.02619502814635982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01527255432886682</v>
+        <v>-0.01729384017756591</v>
       </c>
       <c r="C48">
-        <v>0.01762313080194565</v>
+        <v>-0.0139683824972896</v>
       </c>
       <c r="D48">
-        <v>-0.01664722369760843</v>
+        <v>0.01466059053625941</v>
       </c>
       <c r="E48">
-        <v>-0.03279451508007909</v>
+        <v>-0.01094634066877409</v>
       </c>
       <c r="F48">
-        <v>-0.01387390313136334</v>
+        <v>-0.03388725048518846</v>
       </c>
       <c r="G48">
-        <v>0.001457795516074465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01115826679174179</v>
+      </c>
+      <c r="H48">
+        <v>-0.02479800237902533</v>
+      </c>
+      <c r="I48">
+        <v>-0.005501964374625113</v>
+      </c>
+      <c r="J48">
+        <v>-0.01797280876077966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08370601009476783</v>
+        <v>-0.08692175697415805</v>
       </c>
       <c r="C50">
-        <v>0.02558343156721458</v>
+        <v>-0.01976953561288225</v>
       </c>
       <c r="D50">
-        <v>-0.02630689166317954</v>
+        <v>0.02885731583824</v>
       </c>
       <c r="E50">
-        <v>0.01818186324688343</v>
+        <v>-0.02096362314192533</v>
       </c>
       <c r="F50">
-        <v>-0.004154603918181635</v>
+        <v>-0.002676253994234234</v>
       </c>
       <c r="G50">
-        <v>-0.02889435125068007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001902334267154682</v>
+      </c>
+      <c r="H50">
+        <v>-0.04387135064356407</v>
+      </c>
+      <c r="I50">
+        <v>0.0156087196847818</v>
+      </c>
+      <c r="J50">
+        <v>0.004677298753256422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06972452102786185</v>
+        <v>-0.04715661692828853</v>
       </c>
       <c r="C51">
-        <v>-0.02221123873999427</v>
+        <v>-0.006522247983464415</v>
       </c>
       <c r="D51">
-        <v>0.001148128847358907</v>
+        <v>-0.01371732861816052</v>
       </c>
       <c r="E51">
-        <v>-0.08026078468545306</v>
+        <v>-0.008676394315620409</v>
       </c>
       <c r="F51">
-        <v>-0.04870358393502493</v>
+        <v>-0.09529711748465323</v>
       </c>
       <c r="G51">
-        <v>-0.05808734084622585</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04677400797573694</v>
+      </c>
+      <c r="H51">
+        <v>-0.05840394081257048</v>
+      </c>
+      <c r="I51">
+        <v>-0.007429567610437524</v>
+      </c>
+      <c r="J51">
+        <v>-0.05263425451807226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1464872355986045</v>
+        <v>-0.1282049706682102</v>
       </c>
       <c r="C53">
-        <v>0.009001657544066802</v>
+        <v>-0.03090733329544888</v>
       </c>
       <c r="D53">
-        <v>-0.03942718137733552</v>
+        <v>0.01412337496693616</v>
       </c>
       <c r="E53">
-        <v>0.04188557057647636</v>
+        <v>-0.04732873956918722</v>
       </c>
       <c r="F53">
-        <v>0.01477328862229405</v>
+        <v>0.03680268029142922</v>
       </c>
       <c r="G53">
-        <v>-0.03251085929256136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02111416506662214</v>
+      </c>
+      <c r="H53">
+        <v>-0.002668889024853491</v>
+      </c>
+      <c r="I53">
+        <v>-0.02612263692881178</v>
+      </c>
+      <c r="J53">
+        <v>-0.04380224903144653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02685780972009509</v>
+        <v>-0.02263965731654219</v>
       </c>
       <c r="C54">
-        <v>-0.004221740445702365</v>
+        <v>-0.002921651393469822</v>
       </c>
       <c r="D54">
-        <v>-0.02860868716170864</v>
+        <v>0.009662620827912985</v>
       </c>
       <c r="E54">
-        <v>-0.03237456242164406</v>
+        <v>-0.02582456443553974</v>
       </c>
       <c r="F54">
-        <v>-0.04121604857057132</v>
+        <v>-0.04291949524575372</v>
       </c>
       <c r="G54">
-        <v>0.00995119392808615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03852581202722163</v>
+      </c>
+      <c r="H54">
+        <v>-0.05217129198984238</v>
+      </c>
+      <c r="I54">
+        <v>-0.02983584573906453</v>
+      </c>
+      <c r="J54">
+        <v>-0.004586519703778646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09920377318923841</v>
+        <v>-0.1025406421103792</v>
       </c>
       <c r="C55">
-        <v>-0.005800973056964615</v>
+        <v>-0.007489276930709863</v>
       </c>
       <c r="D55">
-        <v>-0.03601694625606523</v>
+        <v>0.02061373661314414</v>
       </c>
       <c r="E55">
-        <v>0.008151147529323246</v>
+        <v>-0.0326756371883386</v>
       </c>
       <c r="F55">
-        <v>0.03490896840224228</v>
+        <v>0.02394352774828021</v>
       </c>
       <c r="G55">
-        <v>-0.0008431412813667625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.009096527082749146</v>
+      </c>
+      <c r="H55">
+        <v>-0.01843537326664182</v>
+      </c>
+      <c r="I55">
+        <v>-0.005011858713366418</v>
+      </c>
+      <c r="J55">
+        <v>-0.03749550638251997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1796117357099798</v>
+        <v>-0.1690427288257466</v>
       </c>
       <c r="C56">
-        <v>-0.01570609756509814</v>
+        <v>-0.01116035309771051</v>
       </c>
       <c r="D56">
-        <v>-0.07395327870928833</v>
+        <v>0.008629322818034505</v>
       </c>
       <c r="E56">
-        <v>0.08173285646148828</v>
+        <v>-0.08531167651592282</v>
       </c>
       <c r="F56">
-        <v>0.0677631821374557</v>
+        <v>0.07840246719330055</v>
       </c>
       <c r="G56">
-        <v>-0.01274647918769582</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01783088273550192</v>
+      </c>
+      <c r="H56">
+        <v>0.04288757818653327</v>
+      </c>
+      <c r="I56">
+        <v>-0.009911201906826839</v>
+      </c>
+      <c r="J56">
+        <v>-0.05228227062870234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09187294196664221</v>
+        <v>-0.07117306525521537</v>
       </c>
       <c r="C57">
-        <v>0.02309497122252217</v>
+        <v>-0.03278396879357361</v>
       </c>
       <c r="D57">
-        <v>-0.02467142979493844</v>
+        <v>0.006352740386701718</v>
       </c>
       <c r="E57">
-        <v>-0.05906391123422244</v>
+        <v>-0.01363043554143998</v>
       </c>
       <c r="F57">
-        <v>-0.01747751366741167</v>
+        <v>-0.06780630575100444</v>
       </c>
       <c r="G57">
-        <v>0.01234457642173614</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.01143137377090733</v>
+      </c>
+      <c r="H57">
+        <v>-0.03251745425808274</v>
+      </c>
+      <c r="I57">
+        <v>0.01990063187376713</v>
+      </c>
+      <c r="J57">
+        <v>-0.03716850947349289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1717170508792021</v>
+        <v>-0.2015127262961644</v>
       </c>
       <c r="C58">
-        <v>0.001536212722145457</v>
+        <v>-0.09713257519849602</v>
       </c>
       <c r="D58">
-        <v>0.03449485367663809</v>
+        <v>-0.03399872754064066</v>
       </c>
       <c r="E58">
-        <v>-0.1459524418640477</v>
+        <v>0.01086630993820619</v>
       </c>
       <c r="F58">
-        <v>0.06004601082981145</v>
+        <v>-0.2309777535901503</v>
       </c>
       <c r="G58">
-        <v>0.09524675712635397</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1931942353288431</v>
+      </c>
+      <c r="H58">
+        <v>-0.3737152142954782</v>
+      </c>
+      <c r="I58">
+        <v>-0.145445687488301</v>
+      </c>
+      <c r="J58">
+        <v>0.7442068747426446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.004033862745955229</v>
+        <v>-0.03145733753539279</v>
       </c>
       <c r="C59">
-        <v>-0.2015457207357922</v>
+        <v>0.1351935023133416</v>
       </c>
       <c r="D59">
-        <v>-0.01063075069096292</v>
+        <v>-0.1480977017955822</v>
       </c>
       <c r="E59">
-        <v>-0.05330064311369207</v>
+        <v>-0.000447729535339773</v>
       </c>
       <c r="F59">
-        <v>-0.005097279481501813</v>
+        <v>-0.06299821671747428</v>
       </c>
       <c r="G59">
-        <v>-0.002751643949273087</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001678395059572761</v>
+      </c>
+      <c r="H59">
+        <v>0.01366068434612391</v>
+      </c>
+      <c r="I59">
+        <v>-0.0653931786300414</v>
+      </c>
+      <c r="J59">
+        <v>-0.01480252176979095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1857009037242642</v>
+        <v>-0.1803044270501971</v>
       </c>
       <c r="C60">
-        <v>-0.1123616552969376</v>
+        <v>0.009505510134846407</v>
       </c>
       <c r="D60">
-        <v>-0.03378115856791958</v>
+        <v>-0.07749898335041762</v>
       </c>
       <c r="E60">
-        <v>-0.1745322432719159</v>
+        <v>-0.01381755846861208</v>
       </c>
       <c r="F60">
-        <v>-0.04892310836816236</v>
+        <v>-0.1996107900310918</v>
       </c>
       <c r="G60">
-        <v>-0.09676924805330125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05958815506701485</v>
+      </c>
+      <c r="H60">
+        <v>0.2664995806168217</v>
+      </c>
+      <c r="I60">
+        <v>0.08400268375135433</v>
+      </c>
+      <c r="J60">
+        <v>0.02579597364472117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04537670326482311</v>
+        <v>-0.03795314742246819</v>
       </c>
       <c r="C61">
-        <v>-0.0003593816112868029</v>
+        <v>-0.01510116984878709</v>
       </c>
       <c r="D61">
-        <v>0.00602977006534086</v>
+        <v>0.01320487100287491</v>
       </c>
       <c r="E61">
-        <v>-0.05018693471204602</v>
+        <v>-0.003126014948916453</v>
       </c>
       <c r="F61">
-        <v>-0.02032244152108994</v>
+        <v>-0.04709498613573262</v>
       </c>
       <c r="G61">
-        <v>-0.009198936756220704</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01249330469394679</v>
+      </c>
+      <c r="H61">
+        <v>0.002355217719981069</v>
+      </c>
+      <c r="I61">
+        <v>0.04501037190427364</v>
+      </c>
+      <c r="J61">
+        <v>-0.007208204450815887</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04595754502364894</v>
+        <v>-0.03144130156630185</v>
       </c>
       <c r="C63">
-        <v>-0.005087326552345529</v>
+        <v>-0.01342182271170281</v>
       </c>
       <c r="D63">
-        <v>-0.01601143250921857</v>
+        <v>0.008943804365321899</v>
       </c>
       <c r="E63">
-        <v>-0.03909583852855696</v>
+        <v>-0.01420286213575658</v>
       </c>
       <c r="F63">
-        <v>-0.004335412939267294</v>
+        <v>-0.03125694649811935</v>
       </c>
       <c r="G63">
-        <v>-0.003095071678753412</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.008304172587511115</v>
+      </c>
+      <c r="H63">
+        <v>-0.04178117503767082</v>
+      </c>
+      <c r="I63">
+        <v>-0.01225179638615735</v>
+      </c>
+      <c r="J63">
+        <v>-0.04903119501359955</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08021471811272451</v>
+        <v>-0.05729633939505413</v>
       </c>
       <c r="C64">
-        <v>0.0382263049651937</v>
+        <v>-0.0250768865719158</v>
       </c>
       <c r="D64">
-        <v>-0.06588134299296314</v>
+        <v>0.04065398593157286</v>
       </c>
       <c r="E64">
-        <v>-0.06314968416965368</v>
+        <v>-0.04139334125750616</v>
       </c>
       <c r="F64">
-        <v>-0.06493690373329865</v>
+        <v>-0.06389357061358256</v>
       </c>
       <c r="G64">
-        <v>0.01629276072540707</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05629113005480152</v>
+      </c>
+      <c r="H64">
+        <v>-0.003296720957358532</v>
+      </c>
+      <c r="I64">
+        <v>0.007044606167416773</v>
+      </c>
+      <c r="J64">
+        <v>-0.08961582772010511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01941080131763182</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-3.11318683219125e-05</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.008322804100786193</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.002337726547608561</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001592312861336639</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01895095978721563</v>
+      </c>
+      <c r="H65">
+        <v>0.002959702317605955</v>
+      </c>
+      <c r="I65">
+        <v>0.01121389232571594</v>
+      </c>
+      <c r="J65">
+        <v>-0.001783526011367396</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09530647628108256</v>
+        <v>-0.0712539838620945</v>
       </c>
       <c r="C66">
-        <v>0.0220390202343672</v>
+        <v>-0.0467569260003516</v>
       </c>
       <c r="D66">
-        <v>-0.0426572572098359</v>
+        <v>0.02215060387132663</v>
       </c>
       <c r="E66">
-        <v>-0.08079888197813782</v>
+        <v>-0.04417550957257942</v>
       </c>
       <c r="F66">
-        <v>-0.04077446149151197</v>
+        <v>-0.07579373732440946</v>
       </c>
       <c r="G66">
-        <v>-0.02910717642623481</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01425271349224517</v>
+      </c>
+      <c r="H66">
+        <v>0.002863997158843421</v>
+      </c>
+      <c r="I66">
+        <v>0.0661550760785862</v>
+      </c>
+      <c r="J66">
+        <v>-0.04736985430141873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06286186932286729</v>
+        <v>-0.0437043130244546</v>
       </c>
       <c r="C67">
-        <v>-0.01731364773978769</v>
+        <v>0.003432651861316713</v>
       </c>
       <c r="D67">
-        <v>-0.01294213371263768</v>
+        <v>-0.005517894683849986</v>
       </c>
       <c r="E67">
-        <v>-0.03123080502710176</v>
+        <v>-0.006251405785527313</v>
       </c>
       <c r="F67">
-        <v>-0.008634146318938088</v>
+        <v>-0.04165157925021113</v>
       </c>
       <c r="G67">
-        <v>0.03507664341294222</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03234315526226918</v>
+      </c>
+      <c r="H67">
+        <v>0.006416088270631459</v>
+      </c>
+      <c r="I67">
+        <v>0.04017115715310148</v>
+      </c>
+      <c r="J67">
+        <v>0.004955551212932757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.002157307697091294</v>
+        <v>-0.03908670070667197</v>
       </c>
       <c r="C68">
-        <v>-0.2457123178257205</v>
+        <v>0.1651113269869277</v>
       </c>
       <c r="D68">
-        <v>0.00650500524399938</v>
+        <v>-0.1704987714689551</v>
       </c>
       <c r="E68">
-        <v>-0.04186247359486387</v>
+        <v>0.009986186837467765</v>
       </c>
       <c r="F68">
-        <v>0.005579107400290073</v>
+        <v>-0.04628998510113276</v>
       </c>
       <c r="G68">
-        <v>-0.01137527824424291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.009734587010188906</v>
+      </c>
+      <c r="H68">
+        <v>0.006775777365573626</v>
+      </c>
+      <c r="I68">
+        <v>-0.1711462619746753</v>
+      </c>
+      <c r="J68">
+        <v>-0.01134166455054419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06960237574343442</v>
+        <v>-0.07142071348927188</v>
       </c>
       <c r="C69">
-        <v>0.01021472984123155</v>
+        <v>-0.0184335586041383</v>
       </c>
       <c r="D69">
-        <v>-0.02168893710795705</v>
+        <v>0.007408587124245261</v>
       </c>
       <c r="E69">
-        <v>0.01035844571126049</v>
+        <v>-0.02999641047035973</v>
       </c>
       <c r="F69">
-        <v>-0.002638197080434749</v>
+        <v>-0.004748173862378005</v>
       </c>
       <c r="G69">
-        <v>-0.01407512919873745</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02442753032855788</v>
+      </c>
+      <c r="H69">
+        <v>-0.03459306782028635</v>
+      </c>
+      <c r="I69">
+        <v>0.01630720223691083</v>
+      </c>
+      <c r="J69">
+        <v>-0.02718844579855199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.005146082789559687</v>
+        <v>-0.04273404505520035</v>
       </c>
       <c r="C71">
-        <v>-0.2721628561942294</v>
+        <v>0.1746251430200269</v>
       </c>
       <c r="D71">
-        <v>0.004686856065692272</v>
+        <v>-0.1897549693558209</v>
       </c>
       <c r="E71">
-        <v>-0.07759982183091016</v>
+        <v>0.03220439883470067</v>
       </c>
       <c r="F71">
-        <v>-0.009145555081503122</v>
+        <v>-0.06971015092875446</v>
       </c>
       <c r="G71">
-        <v>-0.0626196977103653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01123314218908714</v>
+      </c>
+      <c r="H71">
+        <v>0.02732478879662485</v>
+      </c>
+      <c r="I71">
+        <v>-0.1330420537262404</v>
+      </c>
+      <c r="J71">
+        <v>-0.0312060315283774</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1175020515574646</v>
+        <v>-0.121051204455597</v>
       </c>
       <c r="C72">
-        <v>-0.01214282440365621</v>
+        <v>-0.01343241013951446</v>
       </c>
       <c r="D72">
-        <v>-0.05114402581200487</v>
+        <v>0.001025046722077029</v>
       </c>
       <c r="E72">
-        <v>-0.08809016426787145</v>
+        <v>-0.05558609950602264</v>
       </c>
       <c r="F72">
-        <v>0.005651220069331503</v>
+        <v>-0.0853767631054894</v>
       </c>
       <c r="G72">
-        <v>0.04874745965982168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04913777883302328</v>
+      </c>
+      <c r="H72">
+        <v>-0.007134242963180304</v>
+      </c>
+      <c r="I72">
+        <v>0.03489621880721463</v>
+      </c>
+      <c r="J72">
+        <v>0.09107386031182735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2705624801124622</v>
+        <v>-0.2613469643079205</v>
       </c>
       <c r="C73">
-        <v>-0.1860293868169477</v>
+        <v>0.02029143268069228</v>
       </c>
       <c r="D73">
-        <v>0.009052885459080753</v>
+        <v>-0.1473502882296297</v>
       </c>
       <c r="E73">
-        <v>-0.3225234958065157</v>
+        <v>0.03122999910792409</v>
       </c>
       <c r="F73">
-        <v>-0.06445606540078569</v>
+        <v>-0.3114047696327053</v>
       </c>
       <c r="G73">
-        <v>-0.1902066062187454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1262571162424711</v>
+      </c>
+      <c r="H73">
+        <v>0.486003906696096</v>
+      </c>
+      <c r="I73">
+        <v>0.2847115820733829</v>
+      </c>
+      <c r="J73">
+        <v>0.1127595345484052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1606626899873466</v>
+        <v>-0.1530593650148472</v>
       </c>
       <c r="C74">
-        <v>-0.006788970408247342</v>
+        <v>-0.02421383847456943</v>
       </c>
       <c r="D74">
-        <v>-0.04291283627539309</v>
+        <v>0.001143891877825541</v>
       </c>
       <c r="E74">
-        <v>0.01397038171041374</v>
+        <v>-0.04785509536893428</v>
       </c>
       <c r="F74">
-        <v>0.05021171933790342</v>
+        <v>0.04808268160295216</v>
       </c>
       <c r="G74">
-        <v>-0.07218484236093707</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01175108615651616</v>
+      </c>
+      <c r="H74">
+        <v>0.03007829750016327</v>
+      </c>
+      <c r="I74">
+        <v>0.01270519390353628</v>
+      </c>
+      <c r="J74">
+        <v>-0.08380797246406049</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2378977694224655</v>
+        <v>-0.2426417425517919</v>
       </c>
       <c r="C75">
-        <v>-0.01324483591560885</v>
+        <v>-0.03078373741117055</v>
       </c>
       <c r="D75">
-        <v>-0.05220476536318828</v>
+        <v>-0.01164503876917937</v>
       </c>
       <c r="E75">
-        <v>0.1340632145170794</v>
+        <v>-0.09982401284336502</v>
       </c>
       <c r="F75">
-        <v>0.05341750554379302</v>
+        <v>0.1410820257104051</v>
       </c>
       <c r="G75">
-        <v>-0.0250235814990111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006770807681043938</v>
+      </c>
+      <c r="H75">
+        <v>0.01452726187085607</v>
+      </c>
+      <c r="I75">
+        <v>-0.07894407850783185</v>
+      </c>
+      <c r="J75">
+        <v>-0.06119735321371679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2463492282203417</v>
+        <v>-0.2699714848655011</v>
       </c>
       <c r="C76">
-        <v>-0.01426834951845843</v>
+        <v>-0.006003839211922763</v>
       </c>
       <c r="D76">
-        <v>-0.0960749805193718</v>
+        <v>0.01628445864655286</v>
       </c>
       <c r="E76">
-        <v>0.1227328849067117</v>
+        <v>-0.1306788944890229</v>
       </c>
       <c r="F76">
-        <v>0.07437098724753335</v>
+        <v>0.1701970180534244</v>
       </c>
       <c r="G76">
-        <v>-0.0476267713152408</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04093124354708169</v>
+      </c>
+      <c r="H76">
+        <v>0.04729852449448529</v>
+      </c>
+      <c r="I76">
+        <v>0.001549803385253081</v>
+      </c>
+      <c r="J76">
+        <v>-0.07712507421438586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1291955599167754</v>
+        <v>-0.1312116646010343</v>
       </c>
       <c r="C77">
-        <v>0.01764451355443962</v>
+        <v>-0.05018351789643378</v>
       </c>
       <c r="D77">
-        <v>0.03976789885678048</v>
+        <v>0.03098905002838884</v>
       </c>
       <c r="E77">
-        <v>-0.159932669445373</v>
+        <v>0.03916010999129405</v>
       </c>
       <c r="F77">
-        <v>-0.0003913260666708732</v>
+        <v>-0.1690560051851296</v>
       </c>
       <c r="G77">
-        <v>0.1390116832836899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.0238860227612951</v>
+      </c>
+      <c r="H77">
+        <v>-0.2018628808568558</v>
+      </c>
+      <c r="I77">
+        <v>-0.1297606158267363</v>
+      </c>
+      <c r="J77">
+        <v>-0.146648906003571</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08580405724701501</v>
+        <v>-0.08495470644333401</v>
       </c>
       <c r="C78">
-        <v>0.03652095361542283</v>
+        <v>-0.04490892666600853</v>
       </c>
       <c r="D78">
-        <v>0.01583700826246981</v>
+        <v>0.04333509130979325</v>
       </c>
       <c r="E78">
-        <v>-0.06334553334712517</v>
+        <v>-0.0007212422580033154</v>
       </c>
       <c r="F78">
-        <v>-0.01799255136212324</v>
+        <v>-0.0843659832567772</v>
       </c>
       <c r="G78">
-        <v>0.008850290932078592</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.006971976015179925</v>
+      </c>
+      <c r="H78">
+        <v>-0.03971209991798177</v>
+      </c>
+      <c r="I78">
+        <v>-0.008265719102568691</v>
+      </c>
+      <c r="J78">
+        <v>-0.05448833440792726</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06685276634978038</v>
+        <v>-0.1482819667671858</v>
       </c>
       <c r="C80">
-        <v>0.005748706201311521</v>
+        <v>0.6909055145806384</v>
       </c>
       <c r="D80">
-        <v>0.0115145693682492</v>
+        <v>0.6846338116481749</v>
       </c>
       <c r="E80">
-        <v>-0.005366167402369044</v>
+        <v>0.06594150699194984</v>
       </c>
       <c r="F80">
-        <v>0.07986458933794416</v>
+        <v>-0.04684619522338108</v>
       </c>
       <c r="G80">
-        <v>0.8258579902933073</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05584377276394835</v>
+      </c>
+      <c r="H80">
+        <v>0.04901086736956622</v>
+      </c>
+      <c r="I80">
+        <v>-0.01024074545056943</v>
+      </c>
+      <c r="J80">
+        <v>0.1036815337953545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1644880018333934</v>
+        <v>-0.1803920267458588</v>
       </c>
       <c r="C81">
-        <v>-0.009394756126211387</v>
+        <v>-0.007086514551390737</v>
       </c>
       <c r="D81">
-        <v>-0.03832478193790756</v>
+        <v>-0.004253651364932076</v>
       </c>
       <c r="E81">
-        <v>0.1423660048371769</v>
+        <v>-0.08405675601989858</v>
       </c>
       <c r="F81">
-        <v>0.1009523743523916</v>
+        <v>0.1519589792290933</v>
       </c>
       <c r="G81">
-        <v>-0.02859524790354368</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02557238521562011</v>
+      </c>
+      <c r="H81">
+        <v>0.01585085795784552</v>
+      </c>
+      <c r="I81">
+        <v>-0.03875456324011967</v>
+      </c>
+      <c r="J81">
+        <v>-0.0252411376242406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09005810085407111</v>
+        <v>-0.06771383808569957</v>
       </c>
       <c r="C83">
-        <v>0.04350643434377591</v>
+        <v>-0.04239865368093381</v>
       </c>
       <c r="D83">
-        <v>0.089757509290702</v>
+        <v>0.01806732293369055</v>
       </c>
       <c r="E83">
-        <v>-0.03835698708564232</v>
+        <v>0.04071580266534038</v>
       </c>
       <c r="F83">
-        <v>-0.05267034366980104</v>
+        <v>-0.05473310530296759</v>
       </c>
       <c r="G83">
-        <v>0.01076755565782713</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04465801517689876</v>
+      </c>
+      <c r="H83">
+        <v>-0.02833021912833636</v>
+      </c>
+      <c r="I83">
+        <v>0.006933536468578248</v>
+      </c>
+      <c r="J83">
+        <v>-0.08522343144961851</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2376143641523858</v>
+        <v>-0.255248972286921</v>
       </c>
       <c r="C85">
-        <v>0.0469199547118024</v>
+        <v>-0.04328412105760616</v>
       </c>
       <c r="D85">
-        <v>-0.04813763548615017</v>
+        <v>0.02617811649308562</v>
       </c>
       <c r="E85">
-        <v>0.1486659147366387</v>
+        <v>-0.08650980552788966</v>
       </c>
       <c r="F85">
-        <v>0.05831931789604281</v>
+        <v>0.1688114662635622</v>
       </c>
       <c r="G85">
-        <v>0.008026422191962812</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.0003408792053497557</v>
+      </c>
+      <c r="H85">
+        <v>-0.01420580552197349</v>
+      </c>
+      <c r="I85">
+        <v>-0.02835329863661069</v>
+      </c>
+      <c r="J85">
+        <v>-0.1061849454180913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04500734948728091</v>
+        <v>-0.02921814785560935</v>
       </c>
       <c r="C86">
-        <v>0.04460852125692718</v>
+        <v>-0.03924692944219896</v>
       </c>
       <c r="D86">
-        <v>-0.01564947227782958</v>
+        <v>0.03511815551863746</v>
       </c>
       <c r="E86">
-        <v>-0.06410826971192049</v>
+        <v>-0.01002924970731176</v>
       </c>
       <c r="F86">
-        <v>-0.002025070854104502</v>
+        <v>-0.06895236929088074</v>
       </c>
       <c r="G86">
-        <v>0.006389649791990238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.002952989849053595</v>
+      </c>
+      <c r="H86">
+        <v>-0.06834070190020153</v>
+      </c>
+      <c r="I86">
+        <v>-0.01857717381783433</v>
+      </c>
+      <c r="J86">
+        <v>-0.06036359466488989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02668236627594307</v>
+        <v>-0.03771440242118311</v>
       </c>
       <c r="C87">
-        <v>-0.06451538729246441</v>
+        <v>0.01329821899579553</v>
       </c>
       <c r="D87">
-        <v>-0.01826511392467969</v>
+        <v>-0.02371074330578096</v>
       </c>
       <c r="E87">
-        <v>-0.07127377564523568</v>
+        <v>-0.004539426586147533</v>
       </c>
       <c r="F87">
-        <v>-0.04852093581579638</v>
+        <v>-0.1037320283539339</v>
       </c>
       <c r="G87">
-        <v>-0.09990914989217195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02070807471975897</v>
+      </c>
+      <c r="H87">
+        <v>0.00603014287219551</v>
+      </c>
+      <c r="I87">
+        <v>0.03000722298242044</v>
+      </c>
+      <c r="J87">
+        <v>0.01164681968407557</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03934671008944624</v>
+        <v>-0.02672145100888561</v>
       </c>
       <c r="C88">
-        <v>0.02864389144533871</v>
+        <v>-0.007568448529513517</v>
       </c>
       <c r="D88">
-        <v>-0.005571521105868234</v>
+        <v>0.02312769313073268</v>
       </c>
       <c r="E88">
-        <v>0.008645168434787283</v>
+        <v>-0.01460008909590794</v>
       </c>
       <c r="F88">
-        <v>0.006038329629322835</v>
+        <v>0.006611522750552027</v>
       </c>
       <c r="G88">
-        <v>0.01586011347180738</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03499558692784813</v>
+      </c>
+      <c r="H88">
+        <v>-0.03701668022101969</v>
+      </c>
+      <c r="I88">
+        <v>0.03994092649861236</v>
+      </c>
+      <c r="J88">
+        <v>-0.02430955815090353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.01753793116346616</v>
+        <v>-0.05168712441042519</v>
       </c>
       <c r="C89">
-        <v>-0.4179070033902234</v>
+        <v>0.2643789876616734</v>
       </c>
       <c r="D89">
-        <v>0.09558588000929755</v>
+        <v>-0.2980180869601692</v>
       </c>
       <c r="E89">
-        <v>0.01092592935340296</v>
+        <v>0.05802317864686054</v>
       </c>
       <c r="F89">
-        <v>0.004569268479214895</v>
+        <v>-0.0238090606034135</v>
       </c>
       <c r="G89">
-        <v>0.02515408775065251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03942668361091482</v>
+      </c>
+      <c r="H89">
+        <v>-0.05169615754937332</v>
+      </c>
+      <c r="I89">
+        <v>-0.2727255551751409</v>
+      </c>
+      <c r="J89">
+        <v>-0.04636868483832427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.01389538704838251</v>
+        <v>-0.03582733180860084</v>
       </c>
       <c r="C90">
-        <v>-0.3116032138395517</v>
+        <v>0.2360229460718223</v>
       </c>
       <c r="D90">
-        <v>0.03066545049088066</v>
+        <v>-0.2403349384418736</v>
       </c>
       <c r="E90">
-        <v>-0.03892742907805442</v>
+        <v>0.04047902782126094</v>
       </c>
       <c r="F90">
-        <v>-0.01043619360649245</v>
+        <v>-0.03717405124753676</v>
       </c>
       <c r="G90">
-        <v>-0.04057670179495223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02244848927991049</v>
+      </c>
+      <c r="H90">
+        <v>-0.001992136742545421</v>
+      </c>
+      <c r="I90">
+        <v>-0.2169420444849148</v>
+      </c>
+      <c r="J90">
+        <v>-0.03521098969284098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2985876259997946</v>
+        <v>-0.3123356954208565</v>
       </c>
       <c r="C91">
-        <v>0.0221208067136283</v>
+        <v>-0.03751876651716132</v>
       </c>
       <c r="D91">
-        <v>-0.04540747683359339</v>
+        <v>0.0113617274079644</v>
       </c>
       <c r="E91">
-        <v>0.289731556499347</v>
+        <v>-0.09759072704631051</v>
       </c>
       <c r="F91">
-        <v>0.1613098587049706</v>
+        <v>0.2928352185066925</v>
       </c>
       <c r="G91">
-        <v>0.08864775281606373</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03913368788006925</v>
+      </c>
+      <c r="H91">
+        <v>0.02264191783762231</v>
+      </c>
+      <c r="I91">
+        <v>-0.09315077636688</v>
+      </c>
+      <c r="J91">
+        <v>-0.1290249734725768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.004020391675695394</v>
+        <v>-0.08912527101267216</v>
       </c>
       <c r="C92">
-        <v>-0.4285432813250803</v>
+        <v>0.3254629154762644</v>
       </c>
       <c r="D92">
-        <v>0.2098803794481274</v>
+        <v>-0.3007342351682365</v>
       </c>
       <c r="E92">
-        <v>0.118348392365974</v>
+        <v>0.07524107713670966</v>
       </c>
       <c r="F92">
-        <v>0.07940891628888933</v>
+        <v>0.1320648359522344</v>
       </c>
       <c r="G92">
-        <v>0.2339022999572695</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.06456151975837697</v>
+      </c>
+      <c r="H92">
+        <v>-0.4326400022263061</v>
+      </c>
+      <c r="I92">
+        <v>0.7415504832968142</v>
+      </c>
+      <c r="J92">
+        <v>-0.04367471858728032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.02320747876077184</v>
+        <v>-0.0363213759655001</v>
       </c>
       <c r="C93">
-        <v>-0.372575761748111</v>
+        <v>0.2774479996394565</v>
       </c>
       <c r="D93">
-        <v>0.07827778095866865</v>
+        <v>-0.3034545734962266</v>
       </c>
       <c r="E93">
-        <v>0.0312985738210069</v>
+        <v>0.07315212519826637</v>
       </c>
       <c r="F93">
-        <v>0.02462755048998209</v>
+        <v>0.01207195229966605</v>
       </c>
       <c r="G93">
-        <v>0.06007778119452278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02966971070790565</v>
+      </c>
+      <c r="H93">
+        <v>0.008402252358031317</v>
+      </c>
+      <c r="I93">
+        <v>-0.1887112411653986</v>
+      </c>
+      <c r="J93">
+        <v>-0.02536760850983662</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2904615620766152</v>
+        <v>-0.3155558894395406</v>
       </c>
       <c r="C94">
-        <v>-0.04581507728240642</v>
+        <v>-0.02101641082364224</v>
       </c>
       <c r="D94">
-        <v>0.01734058919126734</v>
+        <v>-0.04207191417014874</v>
       </c>
       <c r="E94">
-        <v>0.3714674204824169</v>
+        <v>-0.1342083533668919</v>
       </c>
       <c r="F94">
-        <v>0.3926314237762276</v>
+        <v>0.3583204062984727</v>
       </c>
       <c r="G94">
-        <v>-0.1184975561085733</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1815771248543512</v>
+      </c>
+      <c r="H94">
+        <v>-0.1127672454435236</v>
+      </c>
+      <c r="I94">
+        <v>-0.06277557078160766</v>
+      </c>
+      <c r="J94">
+        <v>0.1945463758125431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.20183629907745</v>
+        <v>-0.1321119060884754</v>
       </c>
       <c r="C95">
-        <v>-0.04452337446744549</v>
+        <v>-0.1018558517647399</v>
       </c>
       <c r="D95">
-        <v>0.02512229680586861</v>
+        <v>-0.04481919823159753</v>
       </c>
       <c r="E95">
-        <v>0.3990425800725044</v>
+        <v>-0.02332961759043203</v>
       </c>
       <c r="F95">
-        <v>-0.8475692876794689</v>
+        <v>0.0428831424260742</v>
       </c>
       <c r="G95">
-        <v>0.07743591373681857</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9214187538336274</v>
+      </c>
+      <c r="H95">
+        <v>0.0825278610710355</v>
+      </c>
+      <c r="I95">
+        <v>-0.01620215469904993</v>
+      </c>
+      <c r="J95">
+        <v>0.263141305170287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2159930082954937</v>
+        <v>-0.2005911532732109</v>
       </c>
       <c r="C98">
-        <v>-0.1281315787558314</v>
+        <v>0.01262109031521508</v>
       </c>
       <c r="D98">
-        <v>0.02590674574664089</v>
+        <v>-0.1007704558046169</v>
       </c>
       <c r="E98">
-        <v>-0.103027648213301</v>
+        <v>0.02667897401714171</v>
       </c>
       <c r="F98">
-        <v>-0.03775581281553176</v>
+        <v>-0.1554242942205705</v>
       </c>
       <c r="G98">
-        <v>-0.1802340939443224</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06444678508218316</v>
+      </c>
+      <c r="H98">
+        <v>0.3435917761272703</v>
+      </c>
+      <c r="I98">
+        <v>0.1355723979238435</v>
+      </c>
+      <c r="J98">
+        <v>0.08577433769913834</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02097023382174562</v>
+        <v>-0.01582641366636367</v>
       </c>
       <c r="C101">
-        <v>0.01663761538290678</v>
+        <v>-0.01859162840385569</v>
       </c>
       <c r="D101">
-        <v>-0.02424889596529124</v>
+        <v>0.02447801249409854</v>
       </c>
       <c r="E101">
-        <v>-0.0265830235499948</v>
+        <v>-0.03062034094279989</v>
       </c>
       <c r="F101">
-        <v>-0.008913484923375761</v>
+        <v>-0.06751751350283205</v>
       </c>
       <c r="G101">
-        <v>-0.002508911631810741</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.001426201965496379</v>
+      </c>
+      <c r="H101">
+        <v>-0.1144178505770791</v>
+      </c>
+      <c r="I101">
+        <v>0.004656879974432728</v>
+      </c>
+      <c r="J101">
+        <v>0.1185300557930001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1175497575985892</v>
+        <v>-0.121213952180469</v>
       </c>
       <c r="C102">
-        <v>0.007941108669563605</v>
+        <v>-0.01556379014099119</v>
       </c>
       <c r="D102">
-        <v>-0.03157326195000427</v>
+        <v>0.01503304172829496</v>
       </c>
       <c r="E102">
-        <v>0.08617386990219238</v>
+        <v>-0.05260881761195835</v>
       </c>
       <c r="F102">
-        <v>0.00189676872418985</v>
+        <v>0.09025236759927603</v>
       </c>
       <c r="G102">
-        <v>0.003033217325165001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02926637728279985</v>
+      </c>
+      <c r="H102">
+        <v>0.01808055807983297</v>
+      </c>
+      <c r="I102">
+        <v>-0.03901129782580064</v>
+      </c>
+      <c r="J102">
+        <v>-0.04941250029654519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.0173389129979187</v>
+        <v>-0.03108332545031345</v>
       </c>
       <c r="C103">
-        <v>0.0005866279490399722</v>
+        <v>-9.066195599408972e-05</v>
       </c>
       <c r="D103">
-        <v>-0.009695270007309395</v>
+        <v>0.009439600879776515</v>
       </c>
       <c r="E103">
-        <v>0.02455292445500226</v>
+        <v>-0.02026821425423123</v>
       </c>
       <c r="F103">
-        <v>0.007430408896276756</v>
+        <v>0.02025376076485157</v>
       </c>
       <c r="G103">
-        <v>-0.0180912500977409</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01664205027132936</v>
+      </c>
+      <c r="H103">
+        <v>-0.01552628160888484</v>
+      </c>
+      <c r="I103">
+        <v>-0.02240714008542949</v>
+      </c>
+      <c r="J103">
+        <v>-0.01953642141932</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
